--- a/benchmarking_chacha20.xlsx
+++ b/benchmarking_chacha20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Desktop\PhD\Programming\chacha20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA7E729-702F-4398-BC83-21B0386B325D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BC74A3-3A5C-468F-9D10-FB61FBA27A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F417DF20-E0EC-4331-AA01-76290EDDC52A}"/>
+    <workbookView xWindow="2960" yWindow="2960" windowWidth="14400" windowHeight="8170" xr2:uid="{F417DF20-E0EC-4331-AA01-76290EDDC52A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Test</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Clock cycles per byte for Chacha20 in 100 runs</t>
+  </si>
+  <si>
+    <t>CFLAGS = -mavx512f -O3</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,6 +232,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -238,13 +247,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,7 +588,7 @@
   <dimension ref="A1:K506"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -595,10 +597,11 @@
     <col min="2" max="2" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.453125" customWidth="1"/>
-    <col min="7" max="7" width="10.90625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -609,7 +612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -620,7 +623,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -630,13 +633,13 @@
       <c r="C3" s="2">
         <v>202.75</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -646,8 +649,11 @@
       <c r="C4" s="2">
         <v>108.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -657,17 +663,17 @@
       <c r="C5" s="2">
         <v>96.5</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -677,7 +683,7 @@
       <c r="C6" s="2">
         <v>91.5</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="2">
@@ -689,7 +695,7 @@
         <v>132.375</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -699,7 +705,7 @@
       <c r="C7" s="2">
         <v>97</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="2">
@@ -711,7 +717,7 @@
         <v>28.315000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -721,7 +727,7 @@
       <c r="C8" s="2">
         <v>127.25</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="2">
@@ -733,7 +739,7 @@
         <v>12.715</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -743,7 +749,7 @@
       <c r="C9" s="2">
         <v>123.25</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="2">
@@ -755,7 +761,7 @@
         <v>11.67</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -765,7 +771,7 @@
       <c r="C10" s="2">
         <v>99.5</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2">
@@ -777,7 +783,7 @@
         <v>11.155000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -788,7 +794,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -799,7 +805,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -810,7 +816,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -820,8 +826,9 @@
       <c r="C14" s="2">
         <v>125.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -832,7 +839,7 @@
         <v>128.25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -932,7 +939,6 @@
         <v>154.5</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
@@ -944,7 +950,6 @@
       <c r="C25" s="2">
         <v>200</v>
       </c>
-      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
